--- a/오라클 SQl/참고자료/ToDoList 테이블명세양식(2019-12-31).xlsx
+++ b/오라클 SQl/참고자료/ToDoList 테이블명세양식(2019-12-31).xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 명세서" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -236,6 +237,30 @@
   <si>
     <t>TBL_TODOLIST</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD_SEQ</t>
+  </si>
+  <si>
+    <t>TD_DATE</t>
+  </si>
+  <si>
+    <t>TD_TIME</t>
+  </si>
+  <si>
+    <t>TD_SUBJECT</t>
+  </si>
+  <si>
+    <t>TD_TEXT</t>
+  </si>
+  <si>
+    <t>TD_FLAG</t>
+  </si>
+  <si>
+    <t>TD_COMPLETE</t>
+  </si>
+  <si>
+    <t>TD_ALARM</t>
   </si>
 </sst>
 </file>
@@ -859,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1780,4 +1805,88 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>